--- a/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
+++ b/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="485">
   <si>
     <t>TIPO DE INCIDENCIA</t>
   </si>
@@ -1464,6 +1464,18 @@
   </si>
   <si>
     <t>Padre Hurtado</t>
+  </si>
+  <si>
+    <t>ESTADOS DE ACCIÓN</t>
+  </si>
+  <si>
+    <t>EstadosAccion</t>
+  </si>
+  <si>
+    <t>Incumple con lo dispuesto</t>
+  </si>
+  <si>
+    <t>Cumple con lo dispuesto</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1865,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2402,7 @@
         <v>INSERT INTO Roles VALUES (1, 'Coordinador', 1)</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>INSERT INTO Roles VALUES (2, 'Director Responsable', 1)</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>45</v>
       </c>
@@ -2424,6 +2436,32 @@
       <c r="G34" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Roles VALUES (3, 'Representante Alta Dirección', 1)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36" t="s">
+        <v>482</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
+++ b/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
@@ -1869,7 +1869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G37" sqref="G36:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24:G34" si="2">CONCATENATE("INSERT INTO ",B24," VALUES (",C24,", '",D24,"', ",IF(E24=1,1,0),")")</f>
+        <f t="shared" ref="G24:G37" si="2">CONCATENATE("INSERT INTO ",B24," VALUES (",C24,", '",D24,"', ",IF(E24=1,1,0),")")</f>
         <v>INSERT INTO Tratamientos VALUES (2, 'Desecho', 1)</v>
       </c>
     </row>
@@ -2452,6 +2452,13 @@
       <c r="D36" t="s">
         <v>484</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO EstadosAccion VALUES (1, 'Cumple con lo dispuesto', 1)</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -2462,6 +2469,13 @@
       </c>
       <c r="D37" t="s">
         <v>483</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO EstadosAccion VALUES (2, 'Incumple con lo dispuesto', 1)</v>
       </c>
     </row>
   </sheetData>

--- a/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
+++ b/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\SCSNC\trunk\Otros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="UrlAccess" sheetId="2" r:id="rId2"/>
     <sheet name="Regiones  Provincias Comunas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,9 +124,6 @@
     <t>Análisis de Causas</t>
   </si>
   <si>
-    <t>Es espera de revisión</t>
-  </si>
-  <si>
     <t>Re-Análisis</t>
   </si>
   <si>
@@ -1476,6 +1478,9 @@
   </si>
   <si>
     <t>Cumple con lo dispuesto</t>
+  </si>
+  <si>
+    <t>En espera de revisión</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1879,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G36:G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,14 +2173,14 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>484</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO EstadosIncidencia VALUES (3, 'Es espera de revisión', 1)</v>
+        <v>INSERT INTO EstadosIncidencia VALUES (3, 'En espera de revisión', 1)</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2222,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2238,13 +2243,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2256,13 +2261,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2274,13 +2279,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2292,13 +2297,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2310,13 +2315,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2328,13 +2333,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2346,13 +2351,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2364,13 +2369,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2386,13 +2391,13 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2404,13 +2409,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2422,13 +2427,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2441,16 +2446,16 @@
     <row r="35" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>480</v>
+      </c>
+      <c r="B36" t="s">
         <v>481</v>
-      </c>
-      <c r="B36" t="s">
-        <v>482</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2462,13 +2467,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2535,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F10" si="0">CONCATENATE("INSERT INTO ",$C$1," VALUES (",B5,", '",C5,"', '",D5,"')")</f>
@@ -2550,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -2565,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2580,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2595,10 +2600,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -2610,10 +2615,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -2653,26 +2658,26 @@
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="str">
         <f>CONCATENATE("INSERT INTO ",B3," VALUES (",C3,",","'",D3,"')" )</f>
         <v>INSERT INTO Regiones VALUES (1,'XV de Arica y Parinacota')</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2681,17 +2686,17 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE("INSERT INTO ",G3," VALUES (",H3,",",I3,",'",J3,"')")</f>
         <v>INSERT INTO Provincias VALUES (1,1,'Provincia de Arica')</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2700,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="str">
         <f>CONCATENATE("INSERT INTO ",M3," VALUES (",N3,",",O3,",'",P3,"')")</f>
@@ -2709,20 +2714,20 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE("INSERT INTO ",B4," VALUES (",C4,",","'",D4,"')" )</f>
         <v>INSERT INTO Regiones VALUES (2,'I de Tarapacá')</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2731,14 +2736,14 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE("INSERT INTO ",G4," VALUES (",H4,",",I4,",'",J4,"')")</f>
         <v>INSERT INTO Provincias VALUES (2,1,'Provincia de Parinacota')</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -2747,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="str">
         <f>CONCATENATE("INSERT INTO ",M4," VALUES (",N4,",",O4,",'",P4,"')")</f>
@@ -2756,20 +2761,20 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E17" si="0">CONCATENATE("INSERT INTO ",B5," VALUES (",C5,",","'",D5,"')" )</f>
         <v>INSERT INTO Regiones VALUES (3,'II de Antofagasta')</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2778,14 +2783,14 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE("INSERT INTO ",G5," VALUES (",H5,",",I5,",'",J5,"')")</f>
         <v>INSERT INTO Provincias VALUES (3,2,'Provincia de Iquique')</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -2794,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q68" si="1">CONCATENATE("INSERT INTO ",M5," VALUES (",N5,",",O5,",'",P5,"')")</f>
@@ -2803,20 +2808,20 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (4,'III de Atacama')</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2825,14 +2830,14 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6:K56" si="2">CONCATENATE("INSERT INTO ",G6," VALUES (",H6,",",I6,",'",J6,"')")</f>
         <v>INSERT INTO Provincias VALUES (4,2,'Provincia Del Tamarugal')</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -2841,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="1"/>
@@ -2850,20 +2855,20 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (5,'IV de Coquimbo')</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -2872,14 +2877,14 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (5,3,'Provincia de Tocopilla')</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -2888,7 +2893,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="1"/>
@@ -2897,20 +2902,20 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (6,'V de Valparaíso')</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -2919,14 +2924,14 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (6,3,'Provincia de El Loa')</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8">
         <v>6</v>
@@ -2935,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="1"/>
@@ -2944,20 +2949,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (7,'VI del Libertador General Bernardo O'Higgins')</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -2966,14 +2971,14 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (7,3,'Provincia de Antofagasta')</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -2982,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="1"/>
@@ -2991,20 +2996,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (8,'VII del Maule')</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -3013,14 +3018,14 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (8,4,'Provincia de Chañaral')</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10">
         <v>8</v>
@@ -3029,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="1"/>
@@ -3038,20 +3043,20 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (9,'VIII del Bío Bío')</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -3060,14 +3065,14 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (9,4,'Provincia de Copiapó')</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11">
         <v>9</v>
@@ -3076,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="1"/>
@@ -3085,20 +3090,20 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (10,'IX de la Araucanía')</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -3107,14 +3112,14 @@
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (10,4,'Provincia de Huasco')</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -3123,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="1"/>
@@ -3132,20 +3137,20 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (11,'XIV de los Ríos')</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -3154,14 +3159,14 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (11,5,'Provincia de  Elqui')</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>11</v>
@@ -3170,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="1"/>
@@ -3179,20 +3184,20 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (12,'X de los Lagos')</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -3201,14 +3206,14 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (12,5,'Provincia de Limarí')</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>12</v>
@@ -3217,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="1"/>
@@ -3226,20 +3231,20 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (13,'XI Aisén del General Carlos Ibáñez del Campo')</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -3248,14 +3253,14 @@
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (13,5,'Provincia de Choapa')</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>13</v>
@@ -3264,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="1"/>
@@ -3273,20 +3278,20 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (14,'XII de Magallanes y Antártica Chilena')</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -3295,14 +3300,14 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (14,6,'Provincia de Petorca')</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>14</v>
@@ -3311,7 +3316,7 @@
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="1"/>
@@ -3320,20 +3325,20 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Regiones VALUES (15,'Metropolitana de Santiago')</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -3342,14 +3347,14 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (15,6,'Provincia de Los Andes')</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>15</v>
@@ -3358,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="1"/>
@@ -3367,7 +3372,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -3376,14 +3381,14 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (16,6,'Provincia de San Felipe de Aconcagua')</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>16</v>
@@ -3392,7 +3397,7 @@
         <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="1"/>
@@ -3401,7 +3406,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19">
         <v>17</v>
@@ -3410,14 +3415,14 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (17,6,'Provincia de Quillota')</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>17</v>
@@ -3426,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="1"/>
@@ -3435,7 +3440,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -3444,14 +3449,14 @@
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (18,6,'Provincia de Marga Marga')</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20">
         <v>18</v>
@@ -3460,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="P20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="1"/>
@@ -3469,7 +3474,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21">
         <v>19</v>
@@ -3478,14 +3483,14 @@
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (19,6,'Provincia de Valparaíso')</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N21">
         <v>19</v>
@@ -3494,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="1"/>
@@ -3503,7 +3508,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -3512,14 +3517,14 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (20,6,'Provincia de San Antonio')</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N22">
         <v>20</v>
@@ -3528,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="1"/>
@@ -3537,7 +3542,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -3546,14 +3551,14 @@
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (21,6,'Provincia de Isla de Pascua')</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N23">
         <v>21</v>
@@ -3562,7 +3567,7 @@
         <v>8</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="1"/>
@@ -3571,7 +3576,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24">
         <v>22</v>
@@ -3580,14 +3585,14 @@
         <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (22,7,'Provincia de Cachapoal')</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N24">
         <v>22</v>
@@ -3596,7 +3601,7 @@
         <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="1"/>
@@ -3605,7 +3610,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>23</v>
@@ -3614,14 +3619,14 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (23,7,'Provincia de Colchagua')</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N25">
         <v>23</v>
@@ -3630,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="1"/>
@@ -3639,7 +3644,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26">
         <v>24</v>
@@ -3648,14 +3653,14 @@
         <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (24,7,'Provincia Cardenal Caro')</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>24</v>
@@ -3664,7 +3669,7 @@
         <v>9</v>
       </c>
       <c r="P26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="1"/>
@@ -3673,7 +3678,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27">
         <v>25</v>
@@ -3682,14 +3687,14 @@
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (25,8,'Provincia de Curicó')</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>25</v>
@@ -3698,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="1"/>
@@ -3707,7 +3712,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28">
         <v>26</v>
@@ -3716,14 +3721,14 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (26,8,'Provincia de Talca')</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N28">
         <v>26</v>
@@ -3732,7 +3737,7 @@
         <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="1"/>
@@ -3741,7 +3746,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29">
         <v>27</v>
@@ -3750,14 +3755,14 @@
         <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (27,8,'Provincia de Linares')</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N29">
         <v>27</v>
@@ -3766,7 +3771,7 @@
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="1"/>
@@ -3775,7 +3780,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30">
         <v>28</v>
@@ -3784,14 +3789,14 @@
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (28,8,'Provincia de Cauquenes')</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N30">
         <v>28</v>
@@ -3800,7 +3805,7 @@
         <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="1"/>
@@ -3809,7 +3814,7 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31">
         <v>29</v>
@@ -3818,14 +3823,14 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (29,9,'Provincia de Ñuble')</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N31">
         <v>29</v>
@@ -3834,7 +3839,7 @@
         <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="1"/>
@@ -3843,7 +3848,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -3852,14 +3857,14 @@
         <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (30,9,'Provincia de Bío Bío')</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32">
         <v>30</v>
@@ -3868,7 +3873,7 @@
         <v>11</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="1"/>
@@ -3877,7 +3882,7 @@
     </row>
     <row r="33" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33">
         <v>31</v>
@@ -3886,14 +3891,14 @@
         <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (31,9,'Provincia de Concepción')</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N33">
         <v>31</v>
@@ -3902,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="P33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="1"/>
@@ -3911,7 +3916,7 @@
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34">
         <v>32</v>
@@ -3920,14 +3925,14 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (32,9,'Provincia de Arauco')</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34">
         <v>32</v>
@@ -3936,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="1"/>
@@ -3945,7 +3950,7 @@
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35">
         <v>33</v>
@@ -3954,14 +3959,14 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (33,10,'Provincia de Malleco')</v>
       </c>
       <c r="M35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>33</v>
@@ -3970,7 +3975,7 @@
         <v>11</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="1"/>
@@ -3979,7 +3984,7 @@
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36">
         <v>34</v>
@@ -3988,14 +3993,14 @@
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (34,10,'Provincia de Cautín')</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N36">
         <v>34</v>
@@ -4004,7 +4009,7 @@
         <v>11</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="1"/>
@@ -4013,7 +4018,7 @@
     </row>
     <row r="37" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37">
         <v>35</v>
@@ -4022,14 +4027,14 @@
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (35,11,'Provincia de Valdivia')</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N37">
         <v>35</v>
@@ -4038,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="P37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="1"/>
@@ -4047,7 +4052,7 @@
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38">
         <v>36</v>
@@ -4056,14 +4061,14 @@
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (36,11,'Provincia de Ranco')</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N38">
         <v>36</v>
@@ -4072,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="1"/>
@@ -4081,7 +4086,7 @@
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39">
         <v>37</v>
@@ -4090,14 +4095,14 @@
         <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (37,12,'Provincia de Osorno')</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N39">
         <v>37</v>
@@ -4106,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="1"/>
@@ -4115,7 +4120,7 @@
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40">
         <v>38</v>
@@ -4124,14 +4129,14 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (38,12,'Provincia de Llanquihue')</v>
       </c>
       <c r="M40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N40">
         <v>38</v>
@@ -4140,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="P40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="1"/>
@@ -4149,7 +4154,7 @@
     </row>
     <row r="41" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41">
         <v>39</v>
@@ -4158,14 +4163,14 @@
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (39,12,'Provincia de Chiloé')</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N41">
         <v>39</v>
@@ -4174,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="P41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="1"/>
@@ -4183,7 +4188,7 @@
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42">
         <v>40</v>
@@ -4192,14 +4197,14 @@
         <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (40,12,'Provincia de Palena')</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N42">
         <v>40</v>
@@ -4208,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="1"/>
@@ -4217,7 +4222,7 @@
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43">
         <v>41</v>
@@ -4226,14 +4231,14 @@
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (41,13,'Provincia de Coihaique')</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N43">
         <v>41</v>
@@ -4242,7 +4247,7 @@
         <v>13</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="1"/>
@@ -4251,7 +4256,7 @@
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>42</v>
@@ -4260,14 +4265,14 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (42,13,'Provincia de Aisén')</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N44">
         <v>42</v>
@@ -4276,7 +4281,7 @@
         <v>13</v>
       </c>
       <c r="P44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="1"/>
@@ -4285,7 +4290,7 @@
     </row>
     <row r="45" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45">
         <v>43</v>
@@ -4294,14 +4299,14 @@
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (43,13,'Provincia de General Carrera')</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N45">
         <v>43</v>
@@ -4310,7 +4315,7 @@
         <v>13</v>
       </c>
       <c r="P45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="1"/>
@@ -4319,7 +4324,7 @@
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46">
         <v>44</v>
@@ -4328,14 +4333,14 @@
         <v>13</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (44,13,'Provincia de Capitán Prat')</v>
       </c>
       <c r="M46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N46">
         <v>44</v>
@@ -4344,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="1"/>
@@ -4353,7 +4358,7 @@
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47">
         <v>45</v>
@@ -4362,14 +4367,14 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (45,14,'Provincia de Ultima Esperanza')</v>
       </c>
       <c r="M47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N47">
         <v>45</v>
@@ -4378,7 +4383,7 @@
         <v>14</v>
       </c>
       <c r="P47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="1"/>
@@ -4387,7 +4392,7 @@
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48">
         <v>46</v>
@@ -4396,14 +4401,14 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (46,14,'Provincia de Magallanes')</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N48">
         <v>46</v>
@@ -4412,7 +4417,7 @@
         <v>14</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="1"/>
@@ -4421,7 +4426,7 @@
     </row>
     <row r="49" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -4430,14 +4435,14 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (47,14,'Provincia de Tierra del Fuego')</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>47</v>
@@ -4446,7 +4451,7 @@
         <v>14</v>
       </c>
       <c r="P49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="1"/>
@@ -4455,7 +4460,7 @@
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>48</v>
@@ -4464,14 +4469,14 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (48,14,'Provincia de Antártica Chilena')</v>
       </c>
       <c r="M50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N50">
         <v>48</v>
@@ -4480,7 +4485,7 @@
         <v>14</v>
       </c>
       <c r="P50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="1"/>
@@ -4489,7 +4494,7 @@
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51">
         <v>49</v>
@@ -4498,14 +4503,14 @@
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (49,15,'Provincia de Santiago')</v>
       </c>
       <c r="M51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N51">
         <v>49</v>
@@ -4514,7 +4519,7 @@
         <v>14</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="1"/>
@@ -4523,7 +4528,7 @@
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52">
         <v>50</v>
@@ -4532,14 +4537,14 @@
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (50,15,'Provincia de Chacabuco')</v>
       </c>
       <c r="M52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N52">
         <v>50</v>
@@ -4548,7 +4553,7 @@
         <v>15</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="1"/>
@@ -4557,7 +4562,7 @@
     </row>
     <row r="53" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53">
         <v>51</v>
@@ -4566,14 +4571,14 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (51,15,'Provincia de Cordillera')</v>
       </c>
       <c r="M53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N53">
         <v>51</v>
@@ -4582,7 +4587,7 @@
         <v>15</v>
       </c>
       <c r="P53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="1"/>
@@ -4591,7 +4596,7 @@
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54">
         <v>52</v>
@@ -4600,14 +4605,14 @@
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (52,15,'Provincia de Maipo')</v>
       </c>
       <c r="M54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N54">
         <v>52</v>
@@ -4616,7 +4621,7 @@
         <v>15</v>
       </c>
       <c r="P54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="1"/>
@@ -4625,7 +4630,7 @@
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55">
         <v>53</v>
@@ -4634,14 +4639,14 @@
         <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (53,15,'Provincia de Melipilla')</v>
       </c>
       <c r="M55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N55">
         <v>53</v>
@@ -4650,7 +4655,7 @@
         <v>15</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="1"/>
@@ -4659,7 +4664,7 @@
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56">
         <v>54</v>
@@ -4668,14 +4673,14 @@
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO Provincias VALUES (54,15,'Provincia de Talagante')</v>
       </c>
       <c r="M56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N56">
         <v>54</v>
@@ -4684,7 +4689,7 @@
         <v>16</v>
       </c>
       <c r="P56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="1"/>
@@ -4693,7 +4698,7 @@
     </row>
     <row r="57" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N57">
         <v>55</v>
@@ -4702,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="P57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="1"/>
@@ -4711,7 +4716,7 @@
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N58">
         <v>56</v>
@@ -4720,7 +4725,7 @@
         <v>16</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="1"/>
@@ -4729,7 +4734,7 @@
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N59">
         <v>57</v>
@@ -4738,7 +4743,7 @@
         <v>16</v>
       </c>
       <c r="P59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="1"/>
@@ -4747,7 +4752,7 @@
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N60">
         <v>58</v>
@@ -4756,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="P60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="1"/>
@@ -4765,7 +4770,7 @@
     </row>
     <row r="61" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N61">
         <v>59</v>
@@ -4774,7 +4779,7 @@
         <v>16</v>
       </c>
       <c r="P61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" si="1"/>
@@ -4783,7 +4788,7 @@
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N62">
         <v>60</v>
@@ -4792,7 +4797,7 @@
         <v>17</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="1"/>
@@ -4801,7 +4806,7 @@
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N63">
         <v>61</v>
@@ -4810,7 +4815,7 @@
         <v>17</v>
       </c>
       <c r="P63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="1"/>
@@ -4819,7 +4824,7 @@
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.25">
       <c r="M64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N64">
         <v>62</v>
@@ -4828,7 +4833,7 @@
         <v>17</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="1"/>
@@ -4837,7 +4842,7 @@
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N65">
         <v>63</v>
@@ -4846,7 +4851,7 @@
         <v>17</v>
       </c>
       <c r="P65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="1"/>
@@ -4855,7 +4860,7 @@
     </row>
     <row r="66" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N66">
         <v>64</v>
@@ -4864,7 +4869,7 @@
         <v>17</v>
       </c>
       <c r="P66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" si="1"/>
@@ -4873,7 +4878,7 @@
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N67">
         <v>65</v>
@@ -4882,7 +4887,7 @@
         <v>18</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" si="1"/>
@@ -4891,7 +4896,7 @@
     </row>
     <row r="68" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N68">
         <v>66</v>
@@ -4900,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="1"/>
@@ -4909,7 +4914,7 @@
     </row>
     <row r="69" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N69">
         <v>67</v>
@@ -4918,7 +4923,7 @@
         <v>18</v>
       </c>
       <c r="P69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" ref="Q69:Q132" si="3">CONCATENATE("INSERT INTO ",M69," VALUES (",N69,",",O69,",'",P69,"')")</f>
@@ -4927,7 +4932,7 @@
     </row>
     <row r="70" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N70">
         <v>68</v>
@@ -4936,7 +4941,7 @@
         <v>18</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="3"/>
@@ -4945,7 +4950,7 @@
     </row>
     <row r="71" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N71">
         <v>69</v>
@@ -4954,7 +4959,7 @@
         <v>19</v>
       </c>
       <c r="P71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="3"/>
@@ -4963,7 +4968,7 @@
     </row>
     <row r="72" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N72">
         <v>70</v>
@@ -4972,7 +4977,7 @@
         <v>19</v>
       </c>
       <c r="P72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="3"/>
@@ -4981,7 +4986,7 @@
     </row>
     <row r="73" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N73">
         <v>71</v>
@@ -4990,7 +4995,7 @@
         <v>19</v>
       </c>
       <c r="P73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="3"/>
@@ -4999,7 +5004,7 @@
     </row>
     <row r="74" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N74">
         <v>72</v>
@@ -5008,7 +5013,7 @@
         <v>19</v>
       </c>
       <c r="P74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="3"/>
@@ -5017,7 +5022,7 @@
     </row>
     <row r="75" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N75">
         <v>73</v>
@@ -5026,7 +5031,7 @@
         <v>19</v>
       </c>
       <c r="P75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="3"/>
@@ -5035,7 +5040,7 @@
     </row>
     <row r="76" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N76">
         <v>74</v>
@@ -5044,7 +5049,7 @@
         <v>19</v>
       </c>
       <c r="P76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="3"/>
@@ -5053,7 +5058,7 @@
     </row>
     <row r="77" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N77">
         <v>75</v>
@@ -5062,7 +5067,7 @@
         <v>19</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q77" t="str">
         <f t="shared" si="3"/>
@@ -5071,7 +5076,7 @@
     </row>
     <row r="78" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N78">
         <v>76</v>
@@ -5080,7 +5085,7 @@
         <v>20</v>
       </c>
       <c r="P78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q78" t="str">
         <f t="shared" si="3"/>
@@ -5089,7 +5094,7 @@
     </row>
     <row r="79" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N79">
         <v>77</v>
@@ -5098,7 +5103,7 @@
         <v>20</v>
       </c>
       <c r="P79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="3"/>
@@ -5107,7 +5112,7 @@
     </row>
     <row r="80" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N80">
         <v>78</v>
@@ -5116,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="3"/>
@@ -5125,7 +5130,7 @@
     </row>
     <row r="81" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N81">
         <v>79</v>
@@ -5134,7 +5139,7 @@
         <v>20</v>
       </c>
       <c r="P81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="3"/>
@@ -5143,7 +5148,7 @@
     </row>
     <row r="82" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N82">
         <v>80</v>
@@ -5152,7 +5157,7 @@
         <v>20</v>
       </c>
       <c r="P82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="3"/>
@@ -5161,7 +5166,7 @@
     </row>
     <row r="83" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N83">
         <v>81</v>
@@ -5170,7 +5175,7 @@
         <v>20</v>
       </c>
       <c r="P83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="3"/>
@@ -5179,7 +5184,7 @@
     </row>
     <row r="84" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N84">
         <v>82</v>
@@ -5188,7 +5193,7 @@
         <v>21</v>
       </c>
       <c r="P84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q84" t="str">
         <f t="shared" si="3"/>
@@ -5197,7 +5202,7 @@
     </row>
     <row r="85" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N85">
         <v>83</v>
@@ -5206,7 +5211,7 @@
         <v>22</v>
       </c>
       <c r="P85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q85" t="str">
         <f t="shared" si="3"/>
@@ -5215,7 +5220,7 @@
     </row>
     <row r="86" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N86">
         <v>84</v>
@@ -5224,7 +5229,7 @@
         <v>22</v>
       </c>
       <c r="P86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="3"/>
@@ -5233,7 +5238,7 @@
     </row>
     <row r="87" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N87">
         <v>85</v>
@@ -5242,7 +5247,7 @@
         <v>22</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q87" t="str">
         <f t="shared" si="3"/>
@@ -5251,7 +5256,7 @@
     </row>
     <row r="88" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N88">
         <v>86</v>
@@ -5260,7 +5265,7 @@
         <v>22</v>
       </c>
       <c r="P88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" si="3"/>
@@ -5269,7 +5274,7 @@
     </row>
     <row r="89" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N89">
         <v>87</v>
@@ -5278,7 +5283,7 @@
         <v>22</v>
       </c>
       <c r="P89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="3"/>
@@ -5287,7 +5292,7 @@
     </row>
     <row r="90" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N90">
         <v>88</v>
@@ -5296,7 +5301,7 @@
         <v>22</v>
       </c>
       <c r="P90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q90" t="str">
         <f t="shared" si="3"/>
@@ -5305,7 +5310,7 @@
     </row>
     <row r="91" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N91">
         <v>89</v>
@@ -5314,7 +5319,7 @@
         <v>22</v>
       </c>
       <c r="P91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="3"/>
@@ -5323,7 +5328,7 @@
     </row>
     <row r="92" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N92">
         <v>90</v>
@@ -5332,7 +5337,7 @@
         <v>22</v>
       </c>
       <c r="P92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="3"/>
@@ -5341,7 +5346,7 @@
     </row>
     <row r="93" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N93">
         <v>91</v>
@@ -5350,7 +5355,7 @@
         <v>22</v>
       </c>
       <c r="P93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q93" t="str">
         <f t="shared" si="3"/>
@@ -5359,7 +5364,7 @@
     </row>
     <row r="94" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N94">
         <v>92</v>
@@ -5368,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="P94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="3"/>
@@ -5377,7 +5382,7 @@
     </row>
     <row r="95" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N95">
         <v>93</v>
@@ -5386,7 +5391,7 @@
         <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="3"/>
@@ -5395,7 +5400,7 @@
     </row>
     <row r="96" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N96">
         <v>94</v>
@@ -5404,7 +5409,7 @@
         <v>22</v>
       </c>
       <c r="P96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="3"/>
@@ -5413,7 +5418,7 @@
     </row>
     <row r="97" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N97">
         <v>95</v>
@@ -5422,7 +5427,7 @@
         <v>22</v>
       </c>
       <c r="P97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q97" t="str">
         <f t="shared" si="3"/>
@@ -5431,7 +5436,7 @@
     </row>
     <row r="98" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N98">
         <v>96</v>
@@ -5440,7 +5445,7 @@
         <v>22</v>
       </c>
       <c r="P98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="3"/>
@@ -5449,7 +5454,7 @@
     </row>
     <row r="99" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N99">
         <v>97</v>
@@ -5458,7 +5463,7 @@
         <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="3"/>
@@ -5467,7 +5472,7 @@
     </row>
     <row r="100" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N100">
         <v>98</v>
@@ -5476,7 +5481,7 @@
         <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" si="3"/>
@@ -5485,7 +5490,7 @@
     </row>
     <row r="101" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N101">
         <v>99</v>
@@ -5494,7 +5499,7 @@
         <v>22</v>
       </c>
       <c r="P101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="3"/>
@@ -5503,7 +5508,7 @@
     </row>
     <row r="102" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N102">
         <v>100</v>
@@ -5512,7 +5517,7 @@
         <v>23</v>
       </c>
       <c r="P102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="3"/>
@@ -5521,7 +5526,7 @@
     </row>
     <row r="103" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N103">
         <v>101</v>
@@ -5530,7 +5535,7 @@
         <v>23</v>
       </c>
       <c r="P103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="3"/>
@@ -5539,7 +5544,7 @@
     </row>
     <row r="104" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N104">
         <v>102</v>
@@ -5548,7 +5553,7 @@
         <v>23</v>
       </c>
       <c r="P104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="3"/>
@@ -5557,7 +5562,7 @@
     </row>
     <row r="105" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N105">
         <v>103</v>
@@ -5566,7 +5571,7 @@
         <v>23</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="3"/>
@@ -5575,7 +5580,7 @@
     </row>
     <row r="106" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N106">
         <v>104</v>
@@ -5584,7 +5589,7 @@
         <v>23</v>
       </c>
       <c r="P106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="3"/>
@@ -5593,7 +5598,7 @@
     </row>
     <row r="107" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N107">
         <v>105</v>
@@ -5602,7 +5607,7 @@
         <v>23</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="3"/>
@@ -5611,7 +5616,7 @@
     </row>
     <row r="108" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N108">
         <v>106</v>
@@ -5620,7 +5625,7 @@
         <v>23</v>
       </c>
       <c r="P108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" si="3"/>
@@ -5629,7 +5634,7 @@
     </row>
     <row r="109" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N109">
         <v>107</v>
@@ -5638,7 +5643,7 @@
         <v>23</v>
       </c>
       <c r="P109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="3"/>
@@ -5647,7 +5652,7 @@
     </row>
     <row r="110" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N110">
         <v>108</v>
@@ -5656,7 +5661,7 @@
         <v>23</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" si="3"/>
@@ -5665,7 +5670,7 @@
     </row>
     <row r="111" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N111">
         <v>109</v>
@@ -5674,7 +5679,7 @@
         <v>23</v>
       </c>
       <c r="P111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q111" t="str">
         <f t="shared" si="3"/>
@@ -5683,7 +5688,7 @@
     </row>
     <row r="112" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N112">
         <v>110</v>
@@ -5692,7 +5697,7 @@
         <v>24</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="3"/>
@@ -5701,7 +5706,7 @@
     </row>
     <row r="113" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N113">
         <v>111</v>
@@ -5710,7 +5715,7 @@
         <v>24</v>
       </c>
       <c r="P113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="3"/>
@@ -5719,7 +5724,7 @@
     </row>
     <row r="114" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N114">
         <v>112</v>
@@ -5728,7 +5733,7 @@
         <v>24</v>
       </c>
       <c r="P114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" si="3"/>
@@ -5737,7 +5742,7 @@
     </row>
     <row r="115" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N115">
         <v>113</v>
@@ -5746,7 +5751,7 @@
         <v>24</v>
       </c>
       <c r="P115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="3"/>
@@ -5755,7 +5760,7 @@
     </row>
     <row r="116" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N116">
         <v>114</v>
@@ -5764,7 +5769,7 @@
         <v>24</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" si="3"/>
@@ -5773,7 +5778,7 @@
     </row>
     <row r="117" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N117">
         <v>115</v>
@@ -5782,7 +5787,7 @@
         <v>24</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="3"/>
@@ -5791,7 +5796,7 @@
     </row>
     <row r="118" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N118">
         <v>116</v>
@@ -5800,7 +5805,7 @@
         <v>25</v>
       </c>
       <c r="P118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" si="3"/>
@@ -5809,7 +5814,7 @@
     </row>
     <row r="119" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N119">
         <v>117</v>
@@ -5818,7 +5823,7 @@
         <v>25</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" si="3"/>
@@ -5827,7 +5832,7 @@
     </row>
     <row r="120" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N120">
         <v>118</v>
@@ -5836,7 +5841,7 @@
         <v>25</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q120" t="str">
         <f t="shared" si="3"/>
@@ -5845,7 +5850,7 @@
     </row>
     <row r="121" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N121">
         <v>119</v>
@@ -5854,7 +5859,7 @@
         <v>25</v>
       </c>
       <c r="P121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q121" t="str">
         <f t="shared" si="3"/>
@@ -5863,7 +5868,7 @@
     </row>
     <row r="122" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N122">
         <v>120</v>
@@ -5872,7 +5877,7 @@
         <v>25</v>
       </c>
       <c r="P122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q122" t="str">
         <f t="shared" si="3"/>
@@ -5881,7 +5886,7 @@
     </row>
     <row r="123" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N123">
         <v>121</v>
@@ -5890,7 +5895,7 @@
         <v>25</v>
       </c>
       <c r="P123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q123" t="str">
         <f t="shared" si="3"/>
@@ -5899,7 +5904,7 @@
     </row>
     <row r="124" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N124">
         <v>122</v>
@@ -5908,7 +5913,7 @@
         <v>25</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q124" t="str">
         <f t="shared" si="3"/>
@@ -5917,7 +5922,7 @@
     </row>
     <row r="125" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N125">
         <v>123</v>
@@ -5926,7 +5931,7 @@
         <v>25</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q125" t="str">
         <f t="shared" si="3"/>
@@ -5935,7 +5940,7 @@
     </row>
     <row r="126" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N126">
         <v>124</v>
@@ -5944,7 +5949,7 @@
         <v>25</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q126" t="str">
         <f t="shared" si="3"/>
@@ -5953,7 +5958,7 @@
     </row>
     <row r="127" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N127">
         <v>125</v>
@@ -5962,7 +5967,7 @@
         <v>26</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q127" t="str">
         <f t="shared" si="3"/>
@@ -5971,7 +5976,7 @@
     </row>
     <row r="128" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N128">
         <v>126</v>
@@ -5980,7 +5985,7 @@
         <v>26</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q128" t="str">
         <f t="shared" si="3"/>
@@ -5989,7 +5994,7 @@
     </row>
     <row r="129" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N129">
         <v>127</v>
@@ -5998,7 +6003,7 @@
         <v>26</v>
       </c>
       <c r="P129" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q129" t="str">
         <f t="shared" si="3"/>
@@ -6007,7 +6012,7 @@
     </row>
     <row r="130" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N130">
         <v>128</v>
@@ -6016,7 +6021,7 @@
         <v>26</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q130" t="str">
         <f t="shared" si="3"/>
@@ -6025,7 +6030,7 @@
     </row>
     <row r="131" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N131">
         <v>129</v>
@@ -6034,7 +6039,7 @@
         <v>26</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q131" t="str">
         <f t="shared" si="3"/>
@@ -6043,7 +6048,7 @@
     </row>
     <row r="132" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M132" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N132">
         <v>130</v>
@@ -6052,7 +6057,7 @@
         <v>26</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q132" t="str">
         <f t="shared" si="3"/>
@@ -6061,7 +6066,7 @@
     </row>
     <row r="133" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N133">
         <v>131</v>
@@ -6070,7 +6075,7 @@
         <v>26</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q133" t="str">
         <f t="shared" ref="Q133:Q196" si="4">CONCATENATE("INSERT INTO ",M133," VALUES (",N133,",",O133,",'",P133,"')")</f>
@@ -6079,7 +6084,7 @@
     </row>
     <row r="134" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N134">
         <v>132</v>
@@ -6088,7 +6093,7 @@
         <v>26</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q134" t="str">
         <f t="shared" si="4"/>
@@ -6097,7 +6102,7 @@
     </row>
     <row r="135" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N135">
         <v>133</v>
@@ -6106,7 +6111,7 @@
         <v>26</v>
       </c>
       <c r="P135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q135" t="str">
         <f t="shared" si="4"/>
@@ -6115,7 +6120,7 @@
     </row>
     <row r="136" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N136">
         <v>134</v>
@@ -6124,7 +6129,7 @@
         <v>26</v>
       </c>
       <c r="P136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q136" t="str">
         <f t="shared" si="4"/>
@@ -6133,7 +6138,7 @@
     </row>
     <row r="137" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N137">
         <v>135</v>
@@ -6142,7 +6147,7 @@
         <v>27</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q137" t="str">
         <f t="shared" si="4"/>
@@ -6151,7 +6156,7 @@
     </row>
     <row r="138" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N138">
         <v>136</v>
@@ -6160,7 +6165,7 @@
         <v>27</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q138" t="str">
         <f t="shared" si="4"/>
@@ -6169,7 +6174,7 @@
     </row>
     <row r="139" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N139">
         <v>137</v>
@@ -6178,7 +6183,7 @@
         <v>27</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q139" t="str">
         <f t="shared" si="4"/>
@@ -6187,7 +6192,7 @@
     </row>
     <row r="140" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N140">
         <v>138</v>
@@ -6196,7 +6201,7 @@
         <v>27</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q140" t="str">
         <f t="shared" si="4"/>
@@ -6205,7 +6210,7 @@
     </row>
     <row r="141" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N141">
         <v>139</v>
@@ -6214,7 +6219,7 @@
         <v>27</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q141" t="str">
         <f t="shared" si="4"/>
@@ -6223,7 +6228,7 @@
     </row>
     <row r="142" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N142">
         <v>140</v>
@@ -6232,7 +6237,7 @@
         <v>27</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q142" t="str">
         <f t="shared" si="4"/>
@@ -6241,7 +6246,7 @@
     </row>
     <row r="143" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N143">
         <v>141</v>
@@ -6250,7 +6255,7 @@
         <v>27</v>
       </c>
       <c r="P143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q143" t="str">
         <f t="shared" si="4"/>
@@ -6259,7 +6264,7 @@
     </row>
     <row r="144" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N144">
         <v>142</v>
@@ -6268,7 +6273,7 @@
         <v>27</v>
       </c>
       <c r="P144" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q144" t="str">
         <f t="shared" si="4"/>
@@ -6277,7 +6282,7 @@
     </row>
     <row r="145" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N145">
         <v>143</v>
@@ -6286,7 +6291,7 @@
         <v>28</v>
       </c>
       <c r="P145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q145" t="str">
         <f t="shared" si="4"/>
@@ -6295,7 +6300,7 @@
     </row>
     <row r="146" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N146">
         <v>144</v>
@@ -6304,7 +6309,7 @@
         <v>28</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q146" t="str">
         <f t="shared" si="4"/>
@@ -6313,7 +6318,7 @@
     </row>
     <row r="147" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N147">
         <v>145</v>
@@ -6322,7 +6327,7 @@
         <v>28</v>
       </c>
       <c r="P147" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q147" t="str">
         <f t="shared" si="4"/>
@@ -6331,7 +6336,7 @@
     </row>
     <row r="148" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N148">
         <v>146</v>
@@ -6340,7 +6345,7 @@
         <v>29</v>
       </c>
       <c r="P148" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q148" t="str">
         <f t="shared" si="4"/>
@@ -6349,7 +6354,7 @@
     </row>
     <row r="149" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N149">
         <v>147</v>
@@ -6358,7 +6363,7 @@
         <v>29</v>
       </c>
       <c r="P149" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q149" t="str">
         <f t="shared" si="4"/>
@@ -6367,7 +6372,7 @@
     </row>
     <row r="150" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N150">
         <v>148</v>
@@ -6376,7 +6381,7 @@
         <v>29</v>
       </c>
       <c r="P150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q150" t="str">
         <f t="shared" si="4"/>
@@ -6385,7 +6390,7 @@
     </row>
     <row r="151" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N151">
         <v>149</v>
@@ -6394,7 +6399,7 @@
         <v>29</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q151" t="str">
         <f t="shared" si="4"/>
@@ -6403,7 +6408,7 @@
     </row>
     <row r="152" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M152" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N152">
         <v>150</v>
@@ -6412,7 +6417,7 @@
         <v>29</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q152" t="str">
         <f t="shared" si="4"/>
@@ -6421,7 +6426,7 @@
     </row>
     <row r="153" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M153" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N153">
         <v>151</v>
@@ -6430,7 +6435,7 @@
         <v>29</v>
       </c>
       <c r="P153" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q153" t="str">
         <f t="shared" si="4"/>
@@ -6439,7 +6444,7 @@
     </row>
     <row r="154" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N154">
         <v>152</v>
@@ -6448,7 +6453,7 @@
         <v>29</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q154" t="str">
         <f t="shared" si="4"/>
@@ -6457,7 +6462,7 @@
     </row>
     <row r="155" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N155">
         <v>153</v>
@@ -6466,7 +6471,7 @@
         <v>29</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q155" t="str">
         <f t="shared" si="4"/>
@@ -6475,7 +6480,7 @@
     </row>
     <row r="156" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N156">
         <v>154</v>
@@ -6484,7 +6489,7 @@
         <v>29</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q156" t="str">
         <f t="shared" si="4"/>
@@ -6493,7 +6498,7 @@
     </row>
     <row r="157" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N157">
         <v>155</v>
@@ -6502,7 +6507,7 @@
         <v>29</v>
       </c>
       <c r="P157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q157" t="str">
         <f t="shared" si="4"/>
@@ -6511,7 +6516,7 @@
     </row>
     <row r="158" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M158" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N158">
         <v>156</v>
@@ -6520,7 +6525,7 @@
         <v>29</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q158" t="str">
         <f t="shared" si="4"/>
@@ -6529,7 +6534,7 @@
     </row>
     <row r="159" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N159">
         <v>157</v>
@@ -6538,7 +6543,7 @@
         <v>29</v>
       </c>
       <c r="P159" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q159" t="str">
         <f t="shared" si="4"/>
@@ -6547,7 +6552,7 @@
     </row>
     <row r="160" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N160">
         <v>158</v>
@@ -6556,7 +6561,7 @@
         <v>29</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q160" t="str">
         <f t="shared" si="4"/>
@@ -6565,7 +6570,7 @@
     </row>
     <row r="161" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N161">
         <v>159</v>
@@ -6574,7 +6579,7 @@
         <v>29</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q161" t="str">
         <f t="shared" si="4"/>
@@ -6583,7 +6588,7 @@
     </row>
     <row r="162" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N162">
         <v>160</v>
@@ -6592,7 +6597,7 @@
         <v>29</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q162" t="str">
         <f t="shared" si="4"/>
@@ -6601,7 +6606,7 @@
     </row>
     <row r="163" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M163" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N163">
         <v>161</v>
@@ -6610,7 +6615,7 @@
         <v>29</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q163" t="str">
         <f t="shared" si="4"/>
@@ -6619,7 +6624,7 @@
     </row>
     <row r="164" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N164">
         <v>162</v>
@@ -6628,7 +6633,7 @@
         <v>29</v>
       </c>
       <c r="P164" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q164" t="str">
         <f t="shared" si="4"/>
@@ -6637,7 +6642,7 @@
     </row>
     <row r="165" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M165" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N165">
         <v>163</v>
@@ -6646,7 +6651,7 @@
         <v>29</v>
       </c>
       <c r="P165" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q165" t="str">
         <f t="shared" si="4"/>
@@ -6655,7 +6660,7 @@
     </row>
     <row r="166" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N166">
         <v>164</v>
@@ -6664,7 +6669,7 @@
         <v>29</v>
       </c>
       <c r="P166" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q166" t="str">
         <f t="shared" si="4"/>
@@ -6673,7 +6678,7 @@
     </row>
     <row r="167" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N167">
         <v>165</v>
@@ -6682,7 +6687,7 @@
         <v>29</v>
       </c>
       <c r="P167" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q167" t="str">
         <f t="shared" si="4"/>
@@ -6691,7 +6696,7 @@
     </row>
     <row r="168" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N168">
         <v>166</v>
@@ -6700,7 +6705,7 @@
         <v>29</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q168" t="str">
         <f t="shared" si="4"/>
@@ -6709,7 +6714,7 @@
     </row>
     <row r="169" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N169">
         <v>167</v>
@@ -6718,7 +6723,7 @@
         <v>30</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q169" t="str">
         <f t="shared" si="4"/>
@@ -6727,7 +6732,7 @@
     </row>
     <row r="170" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N170">
         <v>168</v>
@@ -6736,7 +6741,7 @@
         <v>30</v>
       </c>
       <c r="P170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q170" t="str">
         <f t="shared" si="4"/>
@@ -6745,7 +6750,7 @@
     </row>
     <row r="171" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M171" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N171">
         <v>169</v>
@@ -6754,7 +6759,7 @@
         <v>30</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q171" t="str">
         <f t="shared" si="4"/>
@@ -6763,7 +6768,7 @@
     </row>
     <row r="172" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M172" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N172">
         <v>170</v>
@@ -6772,7 +6777,7 @@
         <v>30</v>
       </c>
       <c r="P172" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q172" t="str">
         <f t="shared" si="4"/>
@@ -6781,7 +6786,7 @@
     </row>
     <row r="173" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N173">
         <v>171</v>
@@ -6790,7 +6795,7 @@
         <v>30</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q173" t="str">
         <f t="shared" si="4"/>
@@ -6799,7 +6804,7 @@
     </row>
     <row r="174" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M174" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N174">
         <v>172</v>
@@ -6808,7 +6813,7 @@
         <v>30</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q174" t="str">
         <f t="shared" si="4"/>
@@ -6817,7 +6822,7 @@
     </row>
     <row r="175" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N175">
         <v>173</v>
@@ -6826,7 +6831,7 @@
         <v>30</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q175" t="str">
         <f t="shared" si="4"/>
@@ -6835,7 +6840,7 @@
     </row>
     <row r="176" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N176">
         <v>174</v>
@@ -6844,7 +6849,7 @@
         <v>30</v>
       </c>
       <c r="P176" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q176" t="str">
         <f t="shared" si="4"/>
@@ -6853,7 +6858,7 @@
     </row>
     <row r="177" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N177">
         <v>175</v>
@@ -6862,7 +6867,7 @@
         <v>30</v>
       </c>
       <c r="P177" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q177" t="str">
         <f t="shared" si="4"/>
@@ -6871,7 +6876,7 @@
     </row>
     <row r="178" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M178" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N178">
         <v>176</v>
@@ -6880,7 +6885,7 @@
         <v>30</v>
       </c>
       <c r="P178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q178" t="str">
         <f t="shared" si="4"/>
@@ -6889,7 +6894,7 @@
     </row>
     <row r="179" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M179" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N179">
         <v>177</v>
@@ -6898,7 +6903,7 @@
         <v>30</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q179" t="str">
         <f t="shared" si="4"/>
@@ -6907,7 +6912,7 @@
     </row>
     <row r="180" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N180">
         <v>178</v>
@@ -6916,7 +6921,7 @@
         <v>30</v>
       </c>
       <c r="P180" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q180" t="str">
         <f t="shared" si="4"/>
@@ -6925,7 +6930,7 @@
     </row>
     <row r="181" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M181" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N181">
         <v>179</v>
@@ -6934,7 +6939,7 @@
         <v>30</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q181" t="str">
         <f t="shared" si="4"/>
@@ -6943,7 +6948,7 @@
     </row>
     <row r="182" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N182">
         <v>180</v>
@@ -6952,7 +6957,7 @@
         <v>30</v>
       </c>
       <c r="P182" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q182" t="str">
         <f t="shared" si="4"/>
@@ -6961,7 +6966,7 @@
     </row>
     <row r="183" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M183" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N183">
         <v>181</v>
@@ -6970,7 +6975,7 @@
         <v>31</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q183" t="str">
         <f t="shared" si="4"/>
@@ -6979,7 +6984,7 @@
     </row>
     <row r="184" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M184" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N184">
         <v>182</v>
@@ -6988,7 +6993,7 @@
         <v>31</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q184" t="str">
         <f t="shared" si="4"/>
@@ -6997,7 +7002,7 @@
     </row>
     <row r="185" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M185" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N185">
         <v>183</v>
@@ -7006,7 +7011,7 @@
         <v>31</v>
       </c>
       <c r="P185" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q185" t="str">
         <f t="shared" si="4"/>
@@ -7015,7 +7020,7 @@
     </row>
     <row r="186" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M186" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N186">
         <v>184</v>
@@ -7024,7 +7029,7 @@
         <v>31</v>
       </c>
       <c r="P186" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q186" t="str">
         <f t="shared" si="4"/>
@@ -7033,7 +7038,7 @@
     </row>
     <row r="187" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N187">
         <v>185</v>
@@ -7042,7 +7047,7 @@
         <v>31</v>
       </c>
       <c r="P187" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q187" t="str">
         <f t="shared" si="4"/>
@@ -7051,7 +7056,7 @@
     </row>
     <row r="188" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N188">
         <v>186</v>
@@ -7060,7 +7065,7 @@
         <v>31</v>
       </c>
       <c r="P188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q188" t="str">
         <f t="shared" si="4"/>
@@ -7069,7 +7074,7 @@
     </row>
     <row r="189" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M189" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N189">
         <v>187</v>
@@ -7078,7 +7083,7 @@
         <v>31</v>
       </c>
       <c r="P189" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q189" t="str">
         <f t="shared" si="4"/>
@@ -7087,7 +7092,7 @@
     </row>
     <row r="190" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M190" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N190">
         <v>188</v>
@@ -7096,7 +7101,7 @@
         <v>31</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q190" t="str">
         <f t="shared" si="4"/>
@@ -7105,7 +7110,7 @@
     </row>
     <row r="191" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N191">
         <v>189</v>
@@ -7114,7 +7119,7 @@
         <v>31</v>
       </c>
       <c r="P191" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q191" t="str">
         <f t="shared" si="4"/>
@@ -7123,7 +7128,7 @@
     </row>
     <row r="192" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M192" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N192">
         <v>190</v>
@@ -7132,7 +7137,7 @@
         <v>31</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q192" t="str">
         <f t="shared" si="4"/>
@@ -7141,7 +7146,7 @@
     </row>
     <row r="193" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M193" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N193">
         <v>191</v>
@@ -7150,7 +7155,7 @@
         <v>31</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q193" t="str">
         <f t="shared" si="4"/>
@@ -7159,7 +7164,7 @@
     </row>
     <row r="194" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M194" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N194">
         <v>192</v>
@@ -7168,7 +7173,7 @@
         <v>31</v>
       </c>
       <c r="P194" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q194" t="str">
         <f t="shared" si="4"/>
@@ -7177,7 +7182,7 @@
     </row>
     <row r="195" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N195">
         <v>193</v>
@@ -7186,7 +7191,7 @@
         <v>32</v>
       </c>
       <c r="P195" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q195" t="str">
         <f t="shared" si="4"/>
@@ -7195,7 +7200,7 @@
     </row>
     <row r="196" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N196">
         <v>194</v>
@@ -7204,7 +7209,7 @@
         <v>32</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q196" t="str">
         <f t="shared" si="4"/>
@@ -7213,7 +7218,7 @@
     </row>
     <row r="197" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N197">
         <v>195</v>
@@ -7222,7 +7227,7 @@
         <v>32</v>
       </c>
       <c r="P197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q197" t="str">
         <f t="shared" ref="Q197:Q260" si="5">CONCATENATE("INSERT INTO ",M197," VALUES (",N197,",",O197,",'",P197,"')")</f>
@@ -7231,7 +7236,7 @@
     </row>
     <row r="198" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N198">
         <v>196</v>
@@ -7240,7 +7245,7 @@
         <v>32</v>
       </c>
       <c r="P198" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q198" t="str">
         <f t="shared" si="5"/>
@@ -7249,7 +7254,7 @@
     </row>
     <row r="199" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M199" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N199">
         <v>197</v>
@@ -7258,7 +7263,7 @@
         <v>32</v>
       </c>
       <c r="P199" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q199" t="str">
         <f t="shared" si="5"/>
@@ -7267,7 +7272,7 @@
     </row>
     <row r="200" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N200">
         <v>198</v>
@@ -7276,7 +7281,7 @@
         <v>32</v>
       </c>
       <c r="P200" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q200" t="str">
         <f t="shared" si="5"/>
@@ -7285,7 +7290,7 @@
     </row>
     <row r="201" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M201" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N201">
         <v>199</v>
@@ -7294,7 +7299,7 @@
         <v>32</v>
       </c>
       <c r="P201" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q201" t="str">
         <f t="shared" si="5"/>
@@ -7303,7 +7308,7 @@
     </row>
     <row r="202" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M202" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N202">
         <v>200</v>
@@ -7312,7 +7317,7 @@
         <v>33</v>
       </c>
       <c r="P202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q202" t="str">
         <f t="shared" si="5"/>
@@ -7321,7 +7326,7 @@
     </row>
     <row r="203" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M203" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N203">
         <v>201</v>
@@ -7330,7 +7335,7 @@
         <v>33</v>
       </c>
       <c r="P203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q203" t="str">
         <f t="shared" si="5"/>
@@ -7339,7 +7344,7 @@
     </row>
     <row r="204" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M204" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N204">
         <v>202</v>
@@ -7348,7 +7353,7 @@
         <v>33</v>
       </c>
       <c r="P204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q204" t="str">
         <f t="shared" si="5"/>
@@ -7357,7 +7362,7 @@
     </row>
     <row r="205" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M205" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N205">
         <v>203</v>
@@ -7366,7 +7371,7 @@
         <v>33</v>
       </c>
       <c r="P205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q205" t="str">
         <f t="shared" si="5"/>
@@ -7375,7 +7380,7 @@
     </row>
     <row r="206" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M206" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N206">
         <v>204</v>
@@ -7384,7 +7389,7 @@
         <v>33</v>
       </c>
       <c r="P206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q206" t="str">
         <f t="shared" si="5"/>
@@ -7393,7 +7398,7 @@
     </row>
     <row r="207" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M207" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N207">
         <v>205</v>
@@ -7402,7 +7407,7 @@
         <v>33</v>
       </c>
       <c r="P207" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q207" t="str">
         <f t="shared" si="5"/>
@@ -7411,7 +7416,7 @@
     </row>
     <row r="208" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N208">
         <v>206</v>
@@ -7420,7 +7425,7 @@
         <v>33</v>
       </c>
       <c r="P208" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q208" t="str">
         <f t="shared" si="5"/>
@@ -7429,7 +7434,7 @@
     </row>
     <row r="209" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M209" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N209">
         <v>207</v>
@@ -7438,7 +7443,7 @@
         <v>33</v>
       </c>
       <c r="P209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q209" t="str">
         <f t="shared" si="5"/>
@@ -7447,7 +7452,7 @@
     </row>
     <row r="210" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N210">
         <v>208</v>
@@ -7456,7 +7461,7 @@
         <v>33</v>
       </c>
       <c r="P210" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q210" t="str">
         <f t="shared" si="5"/>
@@ -7465,7 +7470,7 @@
     </row>
     <row r="211" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M211" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N211">
         <v>209</v>
@@ -7474,7 +7479,7 @@
         <v>33</v>
       </c>
       <c r="P211" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q211" t="str">
         <f t="shared" si="5"/>
@@ -7483,7 +7488,7 @@
     </row>
     <row r="212" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M212" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N212">
         <v>210</v>
@@ -7492,7 +7497,7 @@
         <v>33</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q212" t="str">
         <f t="shared" si="5"/>
@@ -7501,7 +7506,7 @@
     </row>
     <row r="213" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M213" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N213">
         <v>211</v>
@@ -7510,7 +7515,7 @@
         <v>34</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q213" t="str">
         <f t="shared" si="5"/>
@@ -7519,7 +7524,7 @@
     </row>
     <row r="214" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M214" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N214">
         <v>212</v>
@@ -7528,7 +7533,7 @@
         <v>34</v>
       </c>
       <c r="P214" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q214" t="str">
         <f t="shared" si="5"/>
@@ -7537,7 +7542,7 @@
     </row>
     <row r="215" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M215" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N215">
         <v>213</v>
@@ -7546,7 +7551,7 @@
         <v>34</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q215" t="str">
         <f t="shared" si="5"/>
@@ -7555,7 +7560,7 @@
     </row>
     <row r="216" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N216">
         <v>214</v>
@@ -7564,7 +7569,7 @@
         <v>34</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q216" t="str">
         <f t="shared" si="5"/>
@@ -7573,7 +7578,7 @@
     </row>
     <row r="217" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M217" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N217">
         <v>215</v>
@@ -7582,7 +7587,7 @@
         <v>34</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q217" t="str">
         <f t="shared" si="5"/>
@@ -7591,7 +7596,7 @@
     </row>
     <row r="218" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M218" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N218">
         <v>216</v>
@@ -7600,7 +7605,7 @@
         <v>34</v>
       </c>
       <c r="P218" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q218" t="str">
         <f t="shared" si="5"/>
@@ -7609,7 +7614,7 @@
     </row>
     <row r="219" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M219" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N219">
         <v>217</v>
@@ -7618,7 +7623,7 @@
         <v>34</v>
       </c>
       <c r="P219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q219" t="str">
         <f t="shared" si="5"/>
@@ -7627,7 +7632,7 @@
     </row>
     <row r="220" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N220">
         <v>218</v>
@@ -7636,7 +7641,7 @@
         <v>34</v>
       </c>
       <c r="P220" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q220" t="str">
         <f t="shared" si="5"/>
@@ -7645,7 +7650,7 @@
     </row>
     <row r="221" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M221" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N221">
         <v>219</v>
@@ -7654,7 +7659,7 @@
         <v>34</v>
       </c>
       <c r="P221" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q221" t="str">
         <f t="shared" si="5"/>
@@ -7663,7 +7668,7 @@
     </row>
     <row r="222" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N222">
         <v>220</v>
@@ -7672,7 +7677,7 @@
         <v>34</v>
       </c>
       <c r="P222" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q222" t="str">
         <f t="shared" si="5"/>
@@ -7681,7 +7686,7 @@
     </row>
     <row r="223" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N223">
         <v>221</v>
@@ -7690,7 +7695,7 @@
         <v>34</v>
       </c>
       <c r="P223" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q223" t="str">
         <f t="shared" si="5"/>
@@ -7699,7 +7704,7 @@
     </row>
     <row r="224" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M224" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N224">
         <v>222</v>
@@ -7708,7 +7713,7 @@
         <v>34</v>
       </c>
       <c r="P224" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q224" t="str">
         <f t="shared" si="5"/>
@@ -7717,7 +7722,7 @@
     </row>
     <row r="225" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M225" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N225">
         <v>223</v>
@@ -7726,7 +7731,7 @@
         <v>34</v>
       </c>
       <c r="P225" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q225" t="str">
         <f t="shared" si="5"/>
@@ -7735,7 +7740,7 @@
     </row>
     <row r="226" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M226" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N226">
         <v>224</v>
@@ -7744,7 +7749,7 @@
         <v>34</v>
       </c>
       <c r="P226" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q226" t="str">
         <f t="shared" si="5"/>
@@ -7753,7 +7758,7 @@
     </row>
     <row r="227" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N227">
         <v>225</v>
@@ -7762,7 +7767,7 @@
         <v>34</v>
       </c>
       <c r="P227" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q227" t="str">
         <f t="shared" si="5"/>
@@ -7771,7 +7776,7 @@
     </row>
     <row r="228" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M228" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N228">
         <v>226</v>
@@ -7780,7 +7785,7 @@
         <v>34</v>
       </c>
       <c r="P228" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q228" t="str">
         <f t="shared" si="5"/>
@@ -7789,7 +7794,7 @@
     </row>
     <row r="229" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M229" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N229">
         <v>227</v>
@@ -7798,7 +7803,7 @@
         <v>34</v>
       </c>
       <c r="P229" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q229" t="str">
         <f t="shared" si="5"/>
@@ -7807,7 +7812,7 @@
     </row>
     <row r="230" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M230" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N230">
         <v>228</v>
@@ -7816,7 +7821,7 @@
         <v>34</v>
       </c>
       <c r="P230" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q230" t="str">
         <f t="shared" si="5"/>
@@ -7825,7 +7830,7 @@
     </row>
     <row r="231" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M231" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N231">
         <v>229</v>
@@ -7834,7 +7839,7 @@
         <v>34</v>
       </c>
       <c r="P231" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q231" t="str">
         <f t="shared" si="5"/>
@@ -7843,7 +7848,7 @@
     </row>
     <row r="232" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M232" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N232">
         <v>230</v>
@@ -7852,7 +7857,7 @@
         <v>34</v>
       </c>
       <c r="P232" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q232" t="str">
         <f t="shared" si="5"/>
@@ -7861,7 +7866,7 @@
     </row>
     <row r="233" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M233" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N233">
         <v>231</v>
@@ -7870,7 +7875,7 @@
         <v>34</v>
       </c>
       <c r="P233" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q233" t="str">
         <f t="shared" si="5"/>
@@ -7879,7 +7884,7 @@
     </row>
     <row r="234" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M234" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N234">
         <v>232</v>
@@ -7888,7 +7893,7 @@
         <v>35</v>
       </c>
       <c r="P234" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q234" t="str">
         <f t="shared" si="5"/>
@@ -7897,7 +7902,7 @@
     </row>
     <row r="235" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M235" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N235">
         <v>233</v>
@@ -7906,7 +7911,7 @@
         <v>35</v>
       </c>
       <c r="P235" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q235" t="str">
         <f t="shared" si="5"/>
@@ -7915,7 +7920,7 @@
     </row>
     <row r="236" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M236" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N236">
         <v>234</v>
@@ -7924,7 +7929,7 @@
         <v>35</v>
       </c>
       <c r="P236" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q236" t="str">
         <f t="shared" si="5"/>
@@ -7933,7 +7938,7 @@
     </row>
     <row r="237" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M237" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N237">
         <v>235</v>
@@ -7942,7 +7947,7 @@
         <v>35</v>
       </c>
       <c r="P237" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q237" t="str">
         <f t="shared" si="5"/>
@@ -7951,7 +7956,7 @@
     </row>
     <row r="238" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M238" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N238">
         <v>236</v>
@@ -7960,7 +7965,7 @@
         <v>35</v>
       </c>
       <c r="P238" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q238" t="str">
         <f t="shared" si="5"/>
@@ -7969,7 +7974,7 @@
     </row>
     <row r="239" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M239" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N239">
         <v>237</v>
@@ -7978,7 +7983,7 @@
         <v>35</v>
       </c>
       <c r="P239" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q239" t="str">
         <f t="shared" si="5"/>
@@ -7987,7 +7992,7 @@
     </row>
     <row r="240" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M240" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N240">
         <v>238</v>
@@ -7996,7 +8001,7 @@
         <v>35</v>
       </c>
       <c r="P240" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q240" t="str">
         <f t="shared" si="5"/>
@@ -8005,7 +8010,7 @@
     </row>
     <row r="241" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M241" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N241">
         <v>239</v>
@@ -8014,7 +8019,7 @@
         <v>35</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q241" t="str">
         <f t="shared" si="5"/>
@@ -8023,7 +8028,7 @@
     </row>
     <row r="242" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M242" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N242">
         <v>240</v>
@@ -8032,7 +8037,7 @@
         <v>36</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q242" t="str">
         <f t="shared" si="5"/>
@@ -8041,7 +8046,7 @@
     </row>
     <row r="243" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M243" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N243">
         <v>241</v>
@@ -8050,7 +8055,7 @@
         <v>36</v>
       </c>
       <c r="P243" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q243" t="str">
         <f t="shared" si="5"/>
@@ -8059,7 +8064,7 @@
     </row>
     <row r="244" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M244" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N244">
         <v>242</v>
@@ -8068,7 +8073,7 @@
         <v>36</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q244" t="str">
         <f t="shared" si="5"/>
@@ -8077,7 +8082,7 @@
     </row>
     <row r="245" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M245" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N245">
         <v>243</v>
@@ -8086,7 +8091,7 @@
         <v>36</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q245" t="str">
         <f t="shared" si="5"/>
@@ -8095,7 +8100,7 @@
     </row>
     <row r="246" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M246" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N246">
         <v>244</v>
@@ -8104,7 +8109,7 @@
         <v>37</v>
       </c>
       <c r="P246" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q246" t="str">
         <f t="shared" si="5"/>
@@ -8113,7 +8118,7 @@
     </row>
     <row r="247" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M247" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N247">
         <v>245</v>
@@ -8122,7 +8127,7 @@
         <v>37</v>
       </c>
       <c r="P247" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q247" t="str">
         <f t="shared" si="5"/>
@@ -8131,7 +8136,7 @@
     </row>
     <row r="248" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M248" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N248">
         <v>246</v>
@@ -8140,7 +8145,7 @@
         <v>37</v>
       </c>
       <c r="P248" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q248" t="str">
         <f t="shared" si="5"/>
@@ -8149,7 +8154,7 @@
     </row>
     <row r="249" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M249" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N249">
         <v>247</v>
@@ -8158,7 +8163,7 @@
         <v>37</v>
       </c>
       <c r="P249" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q249" t="str">
         <f t="shared" si="5"/>
@@ -8167,7 +8172,7 @@
     </row>
     <row r="250" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M250" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N250">
         <v>248</v>
@@ -8176,7 +8181,7 @@
         <v>37</v>
       </c>
       <c r="P250" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q250" t="str">
         <f t="shared" si="5"/>
@@ -8185,7 +8190,7 @@
     </row>
     <row r="251" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M251" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N251">
         <v>249</v>
@@ -8194,7 +8199,7 @@
         <v>37</v>
       </c>
       <c r="P251" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q251" t="str">
         <f t="shared" si="5"/>
@@ -8203,7 +8208,7 @@
     </row>
     <row r="252" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M252" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N252">
         <v>250</v>
@@ -8212,7 +8217,7 @@
         <v>37</v>
       </c>
       <c r="P252" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q252" t="str">
         <f t="shared" si="5"/>
@@ -8221,7 +8226,7 @@
     </row>
     <row r="253" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M253" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N253">
         <v>251</v>
@@ -8230,7 +8235,7 @@
         <v>38</v>
       </c>
       <c r="P253" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q253" t="str">
         <f t="shared" si="5"/>
@@ -8239,7 +8244,7 @@
     </row>
     <row r="254" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M254" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N254">
         <v>252</v>
@@ -8248,7 +8253,7 @@
         <v>38</v>
       </c>
       <c r="P254" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q254" t="str">
         <f t="shared" si="5"/>
@@ -8257,7 +8262,7 @@
     </row>
     <row r="255" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M255" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N255">
         <v>253</v>
@@ -8266,7 +8271,7 @@
         <v>38</v>
       </c>
       <c r="P255" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q255" t="str">
         <f t="shared" si="5"/>
@@ -8275,7 +8280,7 @@
     </row>
     <row r="256" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M256" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N256">
         <v>254</v>
@@ -8284,7 +8289,7 @@
         <v>38</v>
       </c>
       <c r="P256" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q256" t="str">
         <f t="shared" si="5"/>
@@ -8293,7 +8298,7 @@
     </row>
     <row r="257" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M257" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N257">
         <v>255</v>
@@ -8302,7 +8307,7 @@
         <v>38</v>
       </c>
       <c r="P257" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q257" t="str">
         <f t="shared" si="5"/>
@@ -8311,7 +8316,7 @@
     </row>
     <row r="258" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M258" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N258">
         <v>256</v>
@@ -8320,7 +8325,7 @@
         <v>38</v>
       </c>
       <c r="P258" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q258" t="str">
         <f t="shared" si="5"/>
@@ -8329,7 +8334,7 @@
     </row>
     <row r="259" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M259" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N259">
         <v>257</v>
@@ -8338,7 +8343,7 @@
         <v>38</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q259" t="str">
         <f t="shared" si="5"/>
@@ -8347,7 +8352,7 @@
     </row>
     <row r="260" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M260" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N260">
         <v>258</v>
@@ -8356,7 +8361,7 @@
         <v>38</v>
       </c>
       <c r="P260" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q260" t="str">
         <f t="shared" si="5"/>
@@ -8365,7 +8370,7 @@
     </row>
     <row r="261" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M261" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N261">
         <v>259</v>
@@ -8374,7 +8379,7 @@
         <v>38</v>
       </c>
       <c r="P261" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q261" t="str">
         <f t="shared" ref="Q261:Q324" si="6">CONCATENATE("INSERT INTO ",M261," VALUES (",N261,",",O261,",'",P261,"')")</f>
@@ -8383,7 +8388,7 @@
     </row>
     <row r="262" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M262" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N262">
         <v>260</v>
@@ -8392,7 +8397,7 @@
         <v>39</v>
       </c>
       <c r="P262" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q262" t="str">
         <f t="shared" si="6"/>
@@ -8401,7 +8406,7 @@
     </row>
     <row r="263" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M263" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N263">
         <v>261</v>
@@ -8410,7 +8415,7 @@
         <v>39</v>
       </c>
       <c r="P263" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q263" t="str">
         <f t="shared" si="6"/>
@@ -8419,7 +8424,7 @@
     </row>
     <row r="264" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M264" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N264">
         <v>262</v>
@@ -8428,7 +8433,7 @@
         <v>39</v>
       </c>
       <c r="P264" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q264" t="str">
         <f t="shared" si="6"/>
@@ -8437,7 +8442,7 @@
     </row>
     <row r="265" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M265" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N265">
         <v>263</v>
@@ -8446,7 +8451,7 @@
         <v>39</v>
       </c>
       <c r="P265" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q265" t="str">
         <f t="shared" si="6"/>
@@ -8455,7 +8460,7 @@
     </row>
     <row r="266" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M266" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N266">
         <v>264</v>
@@ -8464,7 +8469,7 @@
         <v>39</v>
       </c>
       <c r="P266" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q266" t="str">
         <f t="shared" si="6"/>
@@ -8473,7 +8478,7 @@
     </row>
     <row r="267" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M267" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N267">
         <v>265</v>
@@ -8482,7 +8487,7 @@
         <v>39</v>
       </c>
       <c r="P267" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q267" t="str">
         <f t="shared" si="6"/>
@@ -8491,7 +8496,7 @@
     </row>
     <row r="268" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M268" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N268">
         <v>266</v>
@@ -8500,7 +8505,7 @@
         <v>39</v>
       </c>
       <c r="P268" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q268" t="str">
         <f t="shared" si="6"/>
@@ -8509,7 +8514,7 @@
     </row>
     <row r="269" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M269" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N269">
         <v>267</v>
@@ -8518,7 +8523,7 @@
         <v>39</v>
       </c>
       <c r="P269" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q269" t="str">
         <f t="shared" si="6"/>
@@ -8527,7 +8532,7 @@
     </row>
     <row r="270" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M270" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N270">
         <v>268</v>
@@ -8536,7 +8541,7 @@
         <v>39</v>
       </c>
       <c r="P270" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q270" t="str">
         <f t="shared" si="6"/>
@@ -8545,7 +8550,7 @@
     </row>
     <row r="271" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M271" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N271">
         <v>269</v>
@@ -8554,7 +8559,7 @@
         <v>39</v>
       </c>
       <c r="P271" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q271" t="str">
         <f t="shared" si="6"/>
@@ -8563,7 +8568,7 @@
     </row>
     <row r="272" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M272" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N272">
         <v>270</v>
@@ -8572,7 +8577,7 @@
         <v>40</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q272" t="str">
         <f t="shared" si="6"/>
@@ -8581,7 +8586,7 @@
     </row>
     <row r="273" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M273" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N273">
         <v>271</v>
@@ -8590,7 +8595,7 @@
         <v>40</v>
       </c>
       <c r="P273" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q273" t="str">
         <f t="shared" si="6"/>
@@ -8599,7 +8604,7 @@
     </row>
     <row r="274" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M274" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N274">
         <v>272</v>
@@ -8608,7 +8613,7 @@
         <v>40</v>
       </c>
       <c r="P274" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q274" t="str">
         <f t="shared" si="6"/>
@@ -8617,7 +8622,7 @@
     </row>
     <row r="275" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M275" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N275">
         <v>273</v>
@@ -8626,7 +8631,7 @@
         <v>40</v>
       </c>
       <c r="P275" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q275" t="str">
         <f t="shared" si="6"/>
@@ -8635,7 +8640,7 @@
     </row>
     <row r="276" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M276" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N276">
         <v>274</v>
@@ -8644,7 +8649,7 @@
         <v>41</v>
       </c>
       <c r="P276" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q276" t="str">
         <f t="shared" si="6"/>
@@ -8653,7 +8658,7 @@
     </row>
     <row r="277" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M277" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N277">
         <v>275</v>
@@ -8662,7 +8667,7 @@
         <v>41</v>
       </c>
       <c r="P277" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q277" t="str">
         <f t="shared" si="6"/>
@@ -8671,7 +8676,7 @@
     </row>
     <row r="278" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M278" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N278">
         <v>276</v>
@@ -8680,7 +8685,7 @@
         <v>42</v>
       </c>
       <c r="P278" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q278" t="str">
         <f t="shared" si="6"/>
@@ -8689,7 +8694,7 @@
     </row>
     <row r="279" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M279" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N279">
         <v>277</v>
@@ -8698,7 +8703,7 @@
         <v>42</v>
       </c>
       <c r="P279" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q279" t="str">
         <f t="shared" si="6"/>
@@ -8707,7 +8712,7 @@
     </row>
     <row r="280" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M280" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N280">
         <v>278</v>
@@ -8716,7 +8721,7 @@
         <v>42</v>
       </c>
       <c r="P280" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q280" t="str">
         <f t="shared" si="6"/>
@@ -8725,7 +8730,7 @@
     </row>
     <row r="281" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M281" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N281">
         <v>279</v>
@@ -8734,7 +8739,7 @@
         <v>43</v>
       </c>
       <c r="P281" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q281" t="str">
         <f t="shared" si="6"/>
@@ -8743,7 +8748,7 @@
     </row>
     <row r="282" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M282" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N282">
         <v>280</v>
@@ -8752,7 +8757,7 @@
         <v>43</v>
       </c>
       <c r="P282" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q282" t="str">
         <f t="shared" si="6"/>
@@ -8761,7 +8766,7 @@
     </row>
     <row r="283" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M283" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N283">
         <v>281</v>
@@ -8770,7 +8775,7 @@
         <v>44</v>
       </c>
       <c r="P283" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q283" t="str">
         <f t="shared" si="6"/>
@@ -8779,7 +8784,7 @@
     </row>
     <row r="284" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M284" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N284">
         <v>282</v>
@@ -8788,7 +8793,7 @@
         <v>44</v>
       </c>
       <c r="P284" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q284" t="str">
         <f t="shared" si="6"/>
@@ -8797,7 +8802,7 @@
     </row>
     <row r="285" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M285" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N285">
         <v>283</v>
@@ -8806,7 +8811,7 @@
         <v>44</v>
       </c>
       <c r="P285" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q285" t="str">
         <f t="shared" si="6"/>
@@ -8815,7 +8820,7 @@
     </row>
     <row r="286" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M286" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N286">
         <v>284</v>
@@ -8824,7 +8829,7 @@
         <v>45</v>
       </c>
       <c r="P286" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q286" t="str">
         <f t="shared" si="6"/>
@@ -8833,7 +8838,7 @@
     </row>
     <row r="287" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M287" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N287">
         <v>285</v>
@@ -8842,7 +8847,7 @@
         <v>45</v>
       </c>
       <c r="P287" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q287" t="str">
         <f t="shared" si="6"/>
@@ -8851,7 +8856,7 @@
     </row>
     <row r="288" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M288" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N288">
         <v>286</v>
@@ -8860,7 +8865,7 @@
         <v>46</v>
       </c>
       <c r="P288" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q288" t="str">
         <f t="shared" si="6"/>
@@ -8869,7 +8874,7 @@
     </row>
     <row r="289" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M289" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N289">
         <v>287</v>
@@ -8878,7 +8883,7 @@
         <v>46</v>
       </c>
       <c r="P289" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q289" t="str">
         <f t="shared" si="6"/>
@@ -8887,7 +8892,7 @@
     </row>
     <row r="290" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M290" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N290">
         <v>288</v>
@@ -8896,7 +8901,7 @@
         <v>46</v>
       </c>
       <c r="P290" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q290" t="str">
         <f t="shared" si="6"/>
@@ -8905,7 +8910,7 @@
     </row>
     <row r="291" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M291" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N291">
         <v>289</v>
@@ -8914,7 +8919,7 @@
         <v>46</v>
       </c>
       <c r="P291" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q291" t="str">
         <f t="shared" si="6"/>
@@ -8923,7 +8928,7 @@
     </row>
     <row r="292" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M292" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N292">
         <v>290</v>
@@ -8932,7 +8937,7 @@
         <v>47</v>
       </c>
       <c r="P292" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q292" t="str">
         <f t="shared" si="6"/>
@@ -8941,7 +8946,7 @@
     </row>
     <row r="293" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M293" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N293">
         <v>291</v>
@@ -8950,7 +8955,7 @@
         <v>47</v>
       </c>
       <c r="P293" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q293" t="str">
         <f t="shared" si="6"/>
@@ -8959,7 +8964,7 @@
     </row>
     <row r="294" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M294" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N294">
         <v>292</v>
@@ -8968,7 +8973,7 @@
         <v>47</v>
       </c>
       <c r="P294" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q294" t="str">
         <f t="shared" si="6"/>
@@ -8977,7 +8982,7 @@
     </row>
     <row r="295" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M295" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N295">
         <v>293</v>
@@ -8986,7 +8991,7 @@
         <v>48</v>
       </c>
       <c r="P295" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q295" t="str">
         <f t="shared" si="6"/>
@@ -8995,7 +9000,7 @@
     </row>
     <row r="296" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M296" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N296">
         <v>294</v>
@@ -9004,7 +9009,7 @@
         <v>48</v>
       </c>
       <c r="P296" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q296" t="str">
         <f t="shared" si="6"/>
@@ -9013,7 +9018,7 @@
     </row>
     <row r="297" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M297" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N297">
         <v>295</v>
@@ -9022,7 +9027,7 @@
         <v>49</v>
       </c>
       <c r="P297" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q297" t="str">
         <f t="shared" si="6"/>
@@ -9031,7 +9036,7 @@
     </row>
     <row r="298" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M298" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N298">
         <v>296</v>
@@ -9040,7 +9045,7 @@
         <v>49</v>
       </c>
       <c r="P298" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q298" t="str">
         <f t="shared" si="6"/>
@@ -9049,7 +9054,7 @@
     </row>
     <row r="299" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M299" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N299">
         <v>297</v>
@@ -9058,7 +9063,7 @@
         <v>49</v>
       </c>
       <c r="P299" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q299" t="str">
         <f t="shared" si="6"/>
@@ -9067,7 +9072,7 @@
     </row>
     <row r="300" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M300" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N300">
         <v>298</v>
@@ -9076,7 +9081,7 @@
         <v>49</v>
       </c>
       <c r="P300" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q300" t="str">
         <f t="shared" si="6"/>
@@ -9085,7 +9090,7 @@
     </row>
     <row r="301" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M301" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N301">
         <v>299</v>
@@ -9094,7 +9099,7 @@
         <v>49</v>
       </c>
       <c r="P301" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q301" t="str">
         <f t="shared" si="6"/>
@@ -9103,7 +9108,7 @@
     </row>
     <row r="302" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M302" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N302">
         <v>300</v>
@@ -9112,7 +9117,7 @@
         <v>49</v>
       </c>
       <c r="P302" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q302" t="str">
         <f t="shared" si="6"/>
@@ -9121,7 +9126,7 @@
     </row>
     <row r="303" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M303" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N303">
         <v>301</v>
@@ -9130,7 +9135,7 @@
         <v>49</v>
       </c>
       <c r="P303" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q303" t="str">
         <f t="shared" si="6"/>
@@ -9139,7 +9144,7 @@
     </row>
     <row r="304" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M304" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N304">
         <v>302</v>
@@ -9148,7 +9153,7 @@
         <v>49</v>
       </c>
       <c r="P304" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q304" t="str">
         <f t="shared" si="6"/>
@@ -9157,7 +9162,7 @@
     </row>
     <row r="305" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M305" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N305">
         <v>303</v>
@@ -9166,7 +9171,7 @@
         <v>49</v>
       </c>
       <c r="P305" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q305" t="str">
         <f t="shared" si="6"/>
@@ -9175,7 +9180,7 @@
     </row>
     <row r="306" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M306" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N306">
         <v>304</v>
@@ -9184,7 +9189,7 @@
         <v>49</v>
       </c>
       <c r="P306" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q306" t="str">
         <f t="shared" si="6"/>
@@ -9193,7 +9198,7 @@
     </row>
     <row r="307" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M307" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N307">
         <v>305</v>
@@ -9202,7 +9207,7 @@
         <v>49</v>
       </c>
       <c r="P307" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q307" t="str">
         <f t="shared" si="6"/>
@@ -9211,7 +9216,7 @@
     </row>
     <row r="308" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M308" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N308">
         <v>306</v>
@@ -9220,7 +9225,7 @@
         <v>49</v>
       </c>
       <c r="P308" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q308" t="str">
         <f t="shared" si="6"/>
@@ -9229,7 +9234,7 @@
     </row>
     <row r="309" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M309" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N309">
         <v>307</v>
@@ -9238,7 +9243,7 @@
         <v>49</v>
       </c>
       <c r="P309" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q309" t="str">
         <f t="shared" si="6"/>
@@ -9247,7 +9252,7 @@
     </row>
     <row r="310" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M310" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N310">
         <v>308</v>
@@ -9256,7 +9261,7 @@
         <v>49</v>
       </c>
       <c r="P310" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q310" t="str">
         <f t="shared" si="6"/>
@@ -9265,7 +9270,7 @@
     </row>
     <row r="311" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M311" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N311">
         <v>309</v>
@@ -9274,7 +9279,7 @@
         <v>49</v>
       </c>
       <c r="P311" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q311" t="str">
         <f t="shared" si="6"/>
@@ -9283,7 +9288,7 @@
     </row>
     <row r="312" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M312" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N312">
         <v>310</v>
@@ -9292,7 +9297,7 @@
         <v>49</v>
       </c>
       <c r="P312" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q312" t="str">
         <f t="shared" si="6"/>
@@ -9301,7 +9306,7 @@
     </row>
     <row r="313" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M313" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N313">
         <v>311</v>
@@ -9310,7 +9315,7 @@
         <v>49</v>
       </c>
       <c r="P313" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q313" t="str">
         <f t="shared" si="6"/>
@@ -9319,7 +9324,7 @@
     </row>
     <row r="314" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M314" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N314">
         <v>312</v>
@@ -9328,7 +9333,7 @@
         <v>49</v>
       </c>
       <c r="P314" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q314" t="str">
         <f t="shared" si="6"/>
@@ -9337,7 +9342,7 @@
     </row>
     <row r="315" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M315" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N315">
         <v>313</v>
@@ -9346,7 +9351,7 @@
         <v>49</v>
       </c>
       <c r="P315" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q315" t="str">
         <f t="shared" si="6"/>
@@ -9355,7 +9360,7 @@
     </row>
     <row r="316" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M316" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N316">
         <v>314</v>
@@ -9364,7 +9369,7 @@
         <v>49</v>
       </c>
       <c r="P316" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q316" t="str">
         <f t="shared" si="6"/>
@@ -9373,7 +9378,7 @@
     </row>
     <row r="317" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M317" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N317">
         <v>315</v>
@@ -9382,7 +9387,7 @@
         <v>49</v>
       </c>
       <c r="P317" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q317" t="str">
         <f t="shared" si="6"/>
@@ -9391,7 +9396,7 @@
     </row>
     <row r="318" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M318" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N318">
         <v>316</v>
@@ -9400,7 +9405,7 @@
         <v>49</v>
       </c>
       <c r="P318" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q318" t="str">
         <f t="shared" si="6"/>
@@ -9409,7 +9414,7 @@
     </row>
     <row r="319" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M319" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N319">
         <v>317</v>
@@ -9418,7 +9423,7 @@
         <v>49</v>
       </c>
       <c r="P319" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q319" t="str">
         <f t="shared" si="6"/>
@@ -9427,7 +9432,7 @@
     </row>
     <row r="320" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M320" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N320">
         <v>318</v>
@@ -9436,7 +9441,7 @@
         <v>49</v>
       </c>
       <c r="P320" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q320" t="str">
         <f t="shared" si="6"/>
@@ -9445,7 +9450,7 @@
     </row>
     <row r="321" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M321" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N321">
         <v>319</v>
@@ -9454,7 +9459,7 @@
         <v>49</v>
       </c>
       <c r="P321" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q321" t="str">
         <f t="shared" si="6"/>
@@ -9463,7 +9468,7 @@
     </row>
     <row r="322" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M322" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N322">
         <v>320</v>
@@ -9472,7 +9477,7 @@
         <v>49</v>
       </c>
       <c r="P322" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q322" t="str">
         <f t="shared" si="6"/>
@@ -9481,7 +9486,7 @@
     </row>
     <row r="323" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M323" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N323">
         <v>321</v>
@@ -9490,7 +9495,7 @@
         <v>49</v>
       </c>
       <c r="P323" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q323" t="str">
         <f t="shared" si="6"/>
@@ -9499,7 +9504,7 @@
     </row>
     <row r="324" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M324" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N324">
         <v>322</v>
@@ -9508,7 +9513,7 @@
         <v>49</v>
       </c>
       <c r="P324" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q324" t="str">
         <f t="shared" si="6"/>
@@ -9517,7 +9522,7 @@
     </row>
     <row r="325" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M325" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N325">
         <v>323</v>
@@ -9526,7 +9531,7 @@
         <v>49</v>
       </c>
       <c r="P325" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q325" t="str">
         <f t="shared" ref="Q325:Q348" si="7">CONCATENATE("INSERT INTO ",M325," VALUES (",N325,",",O325,",'",P325,"')")</f>
@@ -9535,7 +9540,7 @@
     </row>
     <row r="326" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M326" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N326">
         <v>324</v>
@@ -9544,7 +9549,7 @@
         <v>49</v>
       </c>
       <c r="P326" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q326" t="str">
         <f t="shared" si="7"/>
@@ -9553,7 +9558,7 @@
     </row>
     <row r="327" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M327" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N327">
         <v>325</v>
@@ -9562,7 +9567,7 @@
         <v>49</v>
       </c>
       <c r="P327" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q327" t="str">
         <f t="shared" si="7"/>
@@ -9571,7 +9576,7 @@
     </row>
     <row r="328" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M328" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N328">
         <v>326</v>
@@ -9580,7 +9585,7 @@
         <v>49</v>
       </c>
       <c r="P328" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q328" t="str">
         <f t="shared" si="7"/>
@@ -9589,7 +9594,7 @@
     </row>
     <row r="329" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M329" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N329">
         <v>327</v>
@@ -9598,7 +9603,7 @@
         <v>50</v>
       </c>
       <c r="P329" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q329" t="str">
         <f t="shared" si="7"/>
@@ -9607,7 +9612,7 @@
     </row>
     <row r="330" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M330" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N330">
         <v>328</v>
@@ -9616,7 +9621,7 @@
         <v>50</v>
       </c>
       <c r="P330" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q330" t="str">
         <f t="shared" si="7"/>
@@ -9625,7 +9630,7 @@
     </row>
     <row r="331" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M331" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N331">
         <v>329</v>
@@ -9634,7 +9639,7 @@
         <v>50</v>
       </c>
       <c r="P331" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q331" t="str">
         <f t="shared" si="7"/>
@@ -9643,7 +9648,7 @@
     </row>
     <row r="332" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M332" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N332">
         <v>330</v>
@@ -9652,7 +9657,7 @@
         <v>51</v>
       </c>
       <c r="P332" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q332" t="str">
         <f t="shared" si="7"/>
@@ -9661,7 +9666,7 @@
     </row>
     <row r="333" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M333" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N333">
         <v>331</v>
@@ -9670,7 +9675,7 @@
         <v>51</v>
       </c>
       <c r="P333" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q333" t="str">
         <f t="shared" si="7"/>
@@ -9679,7 +9684,7 @@
     </row>
     <row r="334" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M334" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N334">
         <v>332</v>
@@ -9688,7 +9693,7 @@
         <v>51</v>
       </c>
       <c r="P334" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q334" t="str">
         <f t="shared" si="7"/>
@@ -9697,7 +9702,7 @@
     </row>
     <row r="335" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M335" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N335">
         <v>333</v>
@@ -9706,7 +9711,7 @@
         <v>52</v>
       </c>
       <c r="P335" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q335" t="str">
         <f t="shared" si="7"/>
@@ -9715,7 +9720,7 @@
     </row>
     <row r="336" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M336" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N336">
         <v>334</v>
@@ -9724,7 +9729,7 @@
         <v>52</v>
       </c>
       <c r="P336" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q336" t="str">
         <f t="shared" si="7"/>
@@ -9733,7 +9738,7 @@
     </row>
     <row r="337" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M337" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N337">
         <v>335</v>
@@ -9742,7 +9747,7 @@
         <v>52</v>
       </c>
       <c r="P337" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q337" t="str">
         <f t="shared" si="7"/>
@@ -9751,7 +9756,7 @@
     </row>
     <row r="338" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M338" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N338">
         <v>336</v>
@@ -9760,7 +9765,7 @@
         <v>52</v>
       </c>
       <c r="P338" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q338" t="str">
         <f t="shared" si="7"/>
@@ -9769,7 +9774,7 @@
     </row>
     <row r="339" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M339" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N339">
         <v>337</v>
@@ -9778,7 +9783,7 @@
         <v>53</v>
       </c>
       <c r="P339" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q339" t="str">
         <f t="shared" si="7"/>
@@ -9787,7 +9792,7 @@
     </row>
     <row r="340" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M340" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N340">
         <v>338</v>
@@ -9796,7 +9801,7 @@
         <v>53</v>
       </c>
       <c r="P340" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q340" t="str">
         <f t="shared" si="7"/>
@@ -9805,7 +9810,7 @@
     </row>
     <row r="341" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M341" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N341">
         <v>339</v>
@@ -9814,7 +9819,7 @@
         <v>53</v>
       </c>
       <c r="P341" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q341" t="str">
         <f t="shared" si="7"/>
@@ -9823,7 +9828,7 @@
     </row>
     <row r="342" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M342" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N342">
         <v>340</v>
@@ -9832,7 +9837,7 @@
         <v>53</v>
       </c>
       <c r="P342" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q342" t="str">
         <f t="shared" si="7"/>
@@ -9841,7 +9846,7 @@
     </row>
     <row r="343" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M343" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N343">
         <v>341</v>
@@ -9850,7 +9855,7 @@
         <v>53</v>
       </c>
       <c r="P343" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q343" t="str">
         <f t="shared" si="7"/>
@@ -9859,7 +9864,7 @@
     </row>
     <row r="344" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M344" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N344">
         <v>342</v>
@@ -9868,7 +9873,7 @@
         <v>54</v>
       </c>
       <c r="P344" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q344" t="str">
         <f t="shared" si="7"/>
@@ -9877,7 +9882,7 @@
     </row>
     <row r="345" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M345" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N345">
         <v>343</v>
@@ -9886,7 +9891,7 @@
         <v>54</v>
       </c>
       <c r="P345" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q345" t="str">
         <f t="shared" si="7"/>
@@ -9895,7 +9900,7 @@
     </row>
     <row r="346" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M346" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N346">
         <v>344</v>
@@ -9904,7 +9909,7 @@
         <v>54</v>
       </c>
       <c r="P346" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q346" t="str">
         <f t="shared" si="7"/>
@@ -9913,7 +9918,7 @@
     </row>
     <row r="347" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M347" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N347">
         <v>345</v>
@@ -9922,7 +9927,7 @@
         <v>54</v>
       </c>
       <c r="P347" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q347" t="str">
         <f t="shared" si="7"/>
@@ -9931,7 +9936,7 @@
     </row>
     <row r="348" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M348" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N348">
         <v>346</v>
@@ -9940,7 +9945,7 @@
         <v>54</v>
       </c>
       <c r="P348" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q348" t="str">
         <f t="shared" si="7"/>

--- a/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
+++ b/Otros/Documentación Componentes Tablas y Comandos SQL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="487">
   <si>
     <t>TIPO DE INCIDENCIA</t>
   </si>
@@ -1481,6 +1481,12 @@
   </si>
   <si>
     <t>En espera de revisión</t>
+  </si>
+  <si>
+    <t>Esp.</t>
+  </si>
+  <si>
+    <t>Dias</t>
   </si>
 </sst>
 </file>
@@ -1884,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,6 +1921,9 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
+      <c r="F1" t="s">
+        <v>485</v>
+      </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
@@ -2237,7 +2246,11 @@
         <v>INSERT INTO EstadosIncidencia VALUES (6, 'Finalizada', 1)</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
@@ -2254,9 +2267,12 @@
       <c r="E23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
       <c r="G23" t="str">
-        <f>CONCATENATE("INSERT INTO ",B23," VALUES (",C23,", '",D23,"', ",IF(E23=1,1,0),")")</f>
-        <v>INSERT INTO Tratamientos VALUES (1, 'Concesión', 1)</v>
+        <f>CONCATENATE("INSERT INTO ",B23," VALUES (",C23,", '",D23,"', ",IF(E23=1,1,0),", ",F23,")")</f>
+        <v>INSERT INTO Tratamientos VALUES (1, 'Concesión', 1, 2)</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,9 +2288,12 @@
       <c r="E24">
         <v>1</v>
       </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
       <c r="G24" t="str">
-        <f t="shared" ref="G24:G37" si="2">CONCATENATE("INSERT INTO ",B24," VALUES (",C24,", '",D24,"', ",IF(E24=1,1,0),")")</f>
-        <v>INSERT INTO Tratamientos VALUES (2, 'Desecho', 1)</v>
+        <f t="shared" ref="G24:G30" si="2">CONCATENATE("INSERT INTO ",B24," VALUES (",C24,", '",D24,"', ",IF(E24=1,1,0),", ",F24,")")</f>
+        <v>INSERT INTO Tratamientos VALUES (2, 'Desecho', 1, 2)</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,9 +2309,12 @@
       <c r="E25">
         <v>1</v>
       </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Tratamientos VALUES (3, 'Liberar', 1)</v>
+        <v>INSERT INTO Tratamientos VALUES (3, 'Liberar', 1, 3)</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2308,9 +2330,12 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Tratamientos VALUES (4, 'Permiso de Desviación', 1)</v>
+        <v>INSERT INTO Tratamientos VALUES (4, 'Permiso de Desviación', 1, 2)</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2326,9 +2351,12 @@
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Tratamientos VALUES (5, 'Reclasificación', 1)</v>
+        <v>INSERT INTO Tratamientos VALUES (5, 'Reclasificación', 1, 4)</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,9 +2372,12 @@
       <c r="E28">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Tratamientos VALUES (6, 'Reparación', 1)</v>
+        <v>INSERT INTO Tratamientos VALUES (6, 'Reparación', 1, 5)</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2362,9 +2393,12 @@
       <c r="E29">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Tratamientos VALUES (7, 'Reproceso', 1)</v>
+        <v>INSERT INTO Tratamientos VALUES (7, 'Reproceso', 1, 2)</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,9 +2414,12 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO Tratamientos VALUES (8, 'Verificación', 1)</v>
+        <v>INSERT INTO Tratamientos VALUES (8, 'Verificación', 1, 3)</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G24:G37" si="3">CONCATENATE("INSERT INTO ",B32," VALUES (",C32,", '",D32,"', ",IF(E32=1,1,0),")")</f>
         <v>INSERT INTO Roles VALUES (1, 'Coordinador', 1)</v>
       </c>
     </row>
@@ -2421,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Roles VALUES (2, 'Director Responsable', 1)</v>
       </c>
     </row>
@@ -2439,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO Roles VALUES (3, 'Representante Alta Dirección', 1)</v>
       </c>
     </row>
@@ -2461,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO EstadosAccion VALUES (1, 'Cumple con lo dispuesto', 1)</v>
       </c>
     </row>
@@ -2479,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO EstadosAccion VALUES (2, 'Incumple con lo dispuesto', 1)</v>
       </c>
     </row>
